--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bosun\eclipse-workspace\frameworkdesign\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bosun\eclipse-workspace\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E60F158-E83C-4C29-969E-5C59BF40A8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07303E9D-D00F-4A66-8E8B-C3326DC82268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="logintest" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginTests" sheetId="1" r:id="rId1"/>
+    <sheet name="UserRegTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>email</t>
   </si>
@@ -55,6 +56,39 @@
   </si>
   <si>
     <t>]sdnlmgjkh</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Woyin</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Strood</t>
+  </si>
+  <si>
+    <t>Ade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woyin </t>
+  </si>
+  <si>
+    <t>London</t>
   </si>
 </sst>
 </file>
@@ -385,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,4 +478,63 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7C4116-AE13-4ECE-BAE3-B902ABF0557C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bosun\eclipse-workspace\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07303E9D-D00F-4A66-8E8B-C3326DC82268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2ECAFB-7261-455B-8C89-22EBB39EE0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginTests" sheetId="1" r:id="rId1"/>
-    <sheet name="UserRegTest" sheetId="2" r:id="rId2"/>
+    <sheet name="doLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="doUserRegTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bosun\eclipse-workspace\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2ECAFB-7261-455B-8C89-22EBB39EE0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E7F962-45DC-4119-BBC9-4CD5391D0BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doLogin" sheetId="1" r:id="rId1"/>
     <sheet name="doUserRegTest" sheetId="2" r:id="rId2"/>
+    <sheet name="addCustomer" sheetId="3" r:id="rId3"/>
+    <sheet name="openAccount" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>email</t>
   </si>
@@ -89,6 +91,45 @@
   </si>
   <si>
     <t>London</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Post Code</t>
+  </si>
+  <si>
+    <t>Olawoyin</t>
+  </si>
+  <si>
+    <t>A234565</t>
+  </si>
+  <si>
+    <t>B234567</t>
+  </si>
+  <si>
+    <t>C345678</t>
+  </si>
+  <si>
+    <t>Lol</t>
+  </si>
+  <si>
+    <t>D456789</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Ola Olawoyin</t>
+  </si>
+  <si>
+    <t>Pounds</t>
+  </si>
+  <si>
+    <t>customer</t>
   </si>
 </sst>
 </file>
@@ -484,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7C4116-AE13-4ECE-BAE3-B902ABF0557C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -537,4 +578,113 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B21A37-6E0D-4ACB-BAEA-A4C8E7DD250B}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D30CC1-40BB-4336-92DD-69202A1D1367}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bosun\eclipse-workspace\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E7F962-45DC-4119-BBC9-4CD5391D0BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905D25B9-EF3F-4169-ACB1-62A56B84F36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>email</t>
   </si>
@@ -126,10 +126,22 @@
     <t>Ola Olawoyin</t>
   </si>
   <si>
-    <t>Pounds</t>
-  </si>
-  <si>
     <t>customer</t>
+  </si>
+  <si>
+    <t>Pound</t>
+  </si>
+  <si>
+    <t>Ade Olawoyin</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Kit Olawoyin</t>
+  </si>
+  <si>
+    <t>Rupee</t>
   </si>
 </sst>
 </file>
@@ -657,10 +669,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D30CC1-40BB-4336-92DD-69202A1D1367}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +682,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
@@ -681,7 +693,23 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
